--- a/config_5.18/game_module_config - 大版本.xlsx
+++ b/config_5.18/game_module_config - 大版本.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3817,13 +3817,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_054_byns</t>
@@ -3851,8 +3854,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3938,7 +3941,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3951,8 +4018,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3969,121 +4083,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4092,7 +4095,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4137,7 +4140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4149,37 +4170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,73 +4182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,13 +4200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4293,13 +4212,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,13 +4278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4346,11 +4337,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4372,59 +4402,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4451,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4463,137 +4454,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5073,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
+      <selection pane="bottomRight" activeCell="H344" sqref="H344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13680,13 +13671,13 @@
         <v>994</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" t="s">
         <v>995</v>
@@ -13712,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13720,13 +13711,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C340" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D340" s="49" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13738,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -13768,7 +13759,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config - 大版本.xlsx
+++ b/config_5.18/game_module_config - 大版本.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -506,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -517,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -535,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -553,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -571,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -669,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1262,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1357,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1392,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1427,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1445,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1471,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1506,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1644,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1679,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1714,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1749,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1784,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1819,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1854,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1983,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2009,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3472,7 +3467,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3608,7 +3603,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3768,13 +3763,13 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年4月12日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3811,9 +3806,6 @@
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
-  </si>
-  <si>
-    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3857,8 +3849,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3870,7 +3868,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3882,13 +3880,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3906,13 +3904,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3924,19 +3922,163 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3945,32 +4087,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3985,13 +4107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4013,8 +4135,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4037,13 +4345,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4073,16 +4623,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4200,19 +4750,63 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4470,19 +5064,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4498,7 +5093,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5851,7 +6446,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6033,7 +6628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6397,7 +6992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6449,7 +7044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7567,7 +8162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9137,7 +9732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9161,7 +9756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9185,7 +9780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10207,7 +10802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10230,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10253,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10276,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10299,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10322,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10345,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10368,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10391,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -10961,7 +11556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -10987,7 +11582,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11013,7 +11608,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11039,7 +11634,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11065,7 +11660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11143,7 +11738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11169,7 +11764,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11195,7 +11790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11221,7 +11816,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11247,7 +11842,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11273,7 +11868,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11461,7 +12056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11475,19 +12070,19 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11510,7 +12105,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11664,7 +12259,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11690,7 +12285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11742,7 +12337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11768,7 +12363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11794,7 +12389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11820,7 +12415,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11846,7 +12441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11872,7 +12467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11898,7 +12493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11924,7 +12519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -11950,7 +12545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -11976,7 +12571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12080,7 +12675,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12106,7 +12701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12132,7 +12727,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12158,7 +12753,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12184,7 +12779,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12210,7 +12805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12236,7 +12831,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12262,7 +12857,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12288,7 +12883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12314,7 +12909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12340,7 +12935,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12366,7 +12961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12392,7 +12987,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12418,7 +13013,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12441,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12467,7 +13062,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12493,7 +13088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12519,7 +13114,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12545,7 +13140,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12568,7 +13163,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12591,7 +13186,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -12602,19 +13197,19 @@
         <v>937</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12637,7 +13232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12660,7 +13255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12686,7 +13281,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12710,7 +13305,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12736,7 +13331,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12759,7 +13354,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12788,7 +13383,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12814,7 +13409,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12840,7 +13435,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12866,7 +13461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13068,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13076,25 +13671,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="50" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="I338" t="s">
         <v>995</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-      <c r="G338">
-        <v>0</v>
-      </c>
-      <c r="I338" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13102,11 +13697,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C339" t="s">
         <v>997</v>
       </c>
-      <c r="C339" t="s">
-        <v>998</v>
-      </c>
       <c r="E339">
         <v>0</v>
       </c>
@@ -13117,66 +13712,69 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C340" t="s">
         <v>999</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>1000</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1001</v>
       </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1002</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>